--- a/excel/complete_builds.xlsx
+++ b/excel/complete_builds.xlsx
@@ -78,8 +78,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -360,48 +363,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/excel/complete_builds.xlsx
+++ b/excel/complete_builds.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -43,6 +43,90 @@
   </si>
   <si>
     <t>Power_supply</t>
+  </si>
+  <si>
+    <t>Intel I3-10100 3.6 GHz</t>
+  </si>
+  <si>
+    <t>Asus PRIME B460-PLUS</t>
+  </si>
+  <si>
+    <t>be quiet! Dark Rock Pro 4 Air 1500</t>
+  </si>
+  <si>
+    <t>gpu</t>
+  </si>
+  <si>
+    <t>Asus GeForce GTX 1050 2GB GDDR5</t>
+  </si>
+  <si>
+    <t>Kingston SSD-2.5 A400 240 GB</t>
+  </si>
+  <si>
+    <t>Samsung SSD M.2 980 PRO 2 TB</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>be quiet! Silent Base 802</t>
+  </si>
+  <si>
+    <t>Asus RMx (2021) 750W 80+ Gold Full</t>
+  </si>
+  <si>
+    <t>Intel I3-12100 3.3 GHz</t>
+  </si>
+  <si>
+    <t>Gigabyte B460 AORUS PRO AC</t>
+  </si>
+  <si>
+    <t>Noctua NH-D15 Air 1500</t>
+  </si>
+  <si>
+    <t>Corsair DDR4 32 GB 3600  MHz</t>
+  </si>
+  <si>
+    <t>Corsair DDR4 32 GB 3200 MHz</t>
+  </si>
+  <si>
+    <t>Asus GeForce GTX 1050Ti 4GB GDDR5</t>
+  </si>
+  <si>
+    <t>Kingston SSD-2.5 DC450R 1.92 TB</t>
+  </si>
+  <si>
+    <t>Western Digital HDD Black 1 TB</t>
+  </si>
+  <si>
+    <t>Asus GX 601</t>
+  </si>
+  <si>
+    <t>Asus ROG Strix 750W 80+ Gold Full</t>
+  </si>
+  <si>
+    <t>Intel I5-10400 2.9 GHz</t>
+  </si>
+  <si>
+    <t>MSI B350M PRO-VD PLUS</t>
+  </si>
+  <si>
+    <t>NZXT Kraken X53 Water 2000</t>
+  </si>
+  <si>
+    <t>Corsair DDR4 16 GB 3200 MHz</t>
+  </si>
+  <si>
+    <t>Asus GeForce GTX 1060 3GB GDDR5</t>
+  </si>
+  <si>
+    <t>Samsung SSD-2.5 870 EVO 512 GB</t>
+  </si>
+  <si>
+    <t>Seagate HDD Barracuda 2 TB</t>
+  </si>
+  <si>
+    <t>be quiet! Pure Base 800</t>
   </si>
 </sst>
 </file>
@@ -363,25 +447,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -398,71 +483,155 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>

--- a/excel/complete_builds.xlsx
+++ b/excel/complete_builds.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="98">
   <si>
     <t>cpu</t>
   </si>
@@ -36,24 +33,12 @@
     <t>ram</t>
   </si>
   <si>
-    <t>1st.Storage</t>
-  </si>
-  <si>
-    <t>2nd.Storage</t>
-  </si>
-  <si>
-    <t>Power_supply</t>
-  </si>
-  <si>
     <t>Intel I3-10100 3.6 GHz</t>
   </si>
   <si>
     <t>Asus PRIME B460-PLUS</t>
   </si>
   <si>
-    <t>be quiet! Dark Rock Pro 4 Air 1500</t>
-  </si>
-  <si>
     <t>gpu</t>
   </si>
   <si>
@@ -66,9 +51,6 @@
     <t>Samsung SSD M.2 980 PRO 2 TB</t>
   </si>
   <si>
-    <t>Case</t>
-  </si>
-  <si>
     <t>be quiet! Silent Base 802</t>
   </si>
   <si>
@@ -81,9 +63,6 @@
     <t>Gigabyte B460 AORUS PRO AC</t>
   </si>
   <si>
-    <t>Noctua NH-D15 Air 1500</t>
-  </si>
-  <si>
     <t>Corsair DDR4 32 GB 3600  MHz</t>
   </si>
   <si>
@@ -111,9 +90,6 @@
     <t>MSI B350M PRO-VD PLUS</t>
   </si>
   <si>
-    <t>NZXT Kraken X53 Water 2000</t>
-  </si>
-  <si>
     <t>Corsair DDR4 16 GB 3200 MHz</t>
   </si>
   <si>
@@ -126,7 +102,217 @@
     <t>Seagate HDD Barracuda 2 TB</t>
   </si>
   <si>
-    <t>be quiet! Pure Base 800</t>
+    <t>be quiet! Pure Base 900</t>
+  </si>
+  <si>
+    <t>NZXT Kraken X53 Water</t>
+  </si>
+  <si>
+    <t>Noctua NH-D15 Air</t>
+  </si>
+  <si>
+    <t>be quiet! Dark Rock Pro 4 Air</t>
+  </si>
+  <si>
+    <t>be quiet! Dark Power 12 850W 80+ Titanium Full</t>
+  </si>
+  <si>
+    <t>Kingston DDR4 32 GB 3600  MHz</t>
+  </si>
+  <si>
+    <t>Intel I5-12600K 3.7 GHz</t>
+  </si>
+  <si>
+    <t>Asus ROG STRIX Z590-E GAMING</t>
+  </si>
+  <si>
+    <t>Asus GeForce GTX 1080Ti 11GB GDDR5X</t>
+  </si>
+  <si>
+    <t>Samsung SSD M.2 980 PRO 250 GB</t>
+  </si>
+  <si>
+    <t>Seagate HDD Barracuda 4 TB</t>
+  </si>
+  <si>
+    <t>NZXT CRFT 08 H510 Valhalla</t>
+  </si>
+  <si>
+    <t>EVGA SuperNOVA G6 1000W 80+ Gold Full</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 3 1200 3.1 GHz</t>
+  </si>
+  <si>
+    <t>Cooler Master Hyper 212 RGB Air</t>
+  </si>
+  <si>
+    <t>Kingston DDR4 8 GB 3200 MHz</t>
+  </si>
+  <si>
+    <t>G.Skill DDR4 32 GB 3200 MHz</t>
+  </si>
+  <si>
+    <t>Corsair Air 240</t>
+  </si>
+  <si>
+    <t>Corsair AXi 750W 80+ Platinum Full</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 3 3300X 3.8 GHz</t>
+  </si>
+  <si>
+    <t>Asus ROG Crosshair VII Hero</t>
+  </si>
+  <si>
+    <t>NZXT Kraken X63 Water</t>
+  </si>
+  <si>
+    <t>G.Skill DDR4 16 GB 3600  MHz</t>
+  </si>
+  <si>
+    <t>Samsung SSD-2.5 870 EVO 256 GB</t>
+  </si>
+  <si>
+    <t>Asus ROG Strix Helios</t>
+  </si>
+  <si>
+    <t>be quiet! Pure Power 11 700W 80+ Gold Semi</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 5 2600X 3.6 GHz</t>
+  </si>
+  <si>
+    <t>Asus ROG Crosshair VIII Dark Hero</t>
+  </si>
+  <si>
+    <t>NZXT Kraken Z73 Water</t>
+  </si>
+  <si>
+    <t>Asus GeForce RTX 2060 6GB GDDR6</t>
+  </si>
+  <si>
+    <t>Gigabyte Radeon RX 5600 XT 6GB GDDR6</t>
+  </si>
+  <si>
+    <t>Samsung SSD M.2 970 EVO PLUS 500 GB</t>
+  </si>
+  <si>
+    <t>Samsung SSD-2.5 970 EVO 2 TB</t>
+  </si>
+  <si>
+    <t>Corsair 1000D</t>
+  </si>
+  <si>
+    <t>Corsair HX 1000W 80+ Platinum Full</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 5 5600X 3.7 GHz</t>
+  </si>
+  <si>
+    <t>Kingston DDR4 32 GB 3200 MHz</t>
+  </si>
+  <si>
+    <t>Gigabyte Radeon RX 6900 XT 16GB GDDR6</t>
+  </si>
+  <si>
+    <t>Western Digital HDD Gold 10 TB</t>
+  </si>
+  <si>
+    <t>Cooler Master Cosmos II</t>
+  </si>
+  <si>
+    <t>EVGA T2 1000W 80+ Titanium Full</t>
+  </si>
+  <si>
+    <t>Intel I7-12700 2.1 GHz</t>
+  </si>
+  <si>
+    <t>Gigabyte B660M AORUS Pro</t>
+  </si>
+  <si>
+    <t>DDR4 64 GB 3600  MHz</t>
+  </si>
+  <si>
+    <t>Gigabyte GeForce RTX 3070 8GB GDDR6</t>
+  </si>
+  <si>
+    <t>Samsung SSD M.2 980 PRO 1 TB</t>
+  </si>
+  <si>
+    <t>Seagate HDD IronWolf Pro 20 TB</t>
+  </si>
+  <si>
+    <t>Cooler Master MasterBox Pro 5 RGB</t>
+  </si>
+  <si>
+    <t>Asus ROG Thor 1200P 1200W 80+ Platinum Full</t>
+  </si>
+  <si>
+    <t>Intel I9-12900K 3.2 GHz</t>
+  </si>
+  <si>
+    <t>Gigabyte Z690 AORUS ELITE</t>
+  </si>
+  <si>
+    <t>Kingston DDR4 128 GB 3200 MHz</t>
+  </si>
+  <si>
+    <t>Gigabyte GeForce RTX 3090 24GB GDDR6X</t>
+  </si>
+  <si>
+    <t>be quiet! Dark Power Pro 12 1500W 80+ Titanium Full</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 9 5950X 3.4 GHz</t>
+  </si>
+  <si>
+    <t>Asus ROG Strix X570-E</t>
+  </si>
+  <si>
+    <t>Cooler Master masterliquid ml360 RGB Water</t>
+  </si>
+  <si>
+    <t>G.Skill DDR4 64 GB 3200 MHz</t>
+  </si>
+  <si>
+    <t>Western Digital HDD Gold 20 TB</t>
+  </si>
+  <si>
+    <t>Corsair HX 1200W 80+ Platinum Full</t>
+  </si>
+  <si>
+    <t>Intel I9-12900KF 3.2 GHz</t>
+  </si>
+  <si>
+    <t>MSI MPG Z690 EDGE</t>
+  </si>
+  <si>
+    <t>Kingston DDR4 128 GB 3600  MHz</t>
+  </si>
+  <si>
+    <t>Gigabyte GeForce RTX 3080Ti 12GB GDDR6X</t>
+  </si>
+  <si>
+    <t>Seagate HDD Barracuda 20 TB</t>
+  </si>
+  <si>
+    <t>Asus TUF Gaming GT301</t>
+  </si>
+  <si>
+    <t>cb_id</t>
+  </si>
+  <si>
+    <t>first_storage</t>
+  </si>
+  <si>
+    <t>pc_case</t>
+  </si>
+  <si>
+    <t>power_supply</t>
+  </si>
+  <si>
+    <t>sec_storage</t>
   </si>
 </sst>
 </file>
@@ -162,10 +348,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -450,193 +639,441 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
+      <c r="G1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
+      <c r="J2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
+      <c r="B13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>